--- a/mappings/image_mappings.xlsx
+++ b/mappings/image_mappings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\python\pythonocr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\python\pythonocr\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB75AB2B-7A77-44B2-8DFC-E811F096107A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B28026-3A3B-4670-9138-1FCD15E1857F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>find_the_error</t>
   </si>
@@ -76,6 +61,66 @@
   </si>
   <si>
     <t>20100510_11</t>
+  </si>
+  <si>
+    <t>top_width</t>
+  </si>
+  <si>
+    <t>top_height</t>
+  </si>
+  <si>
+    <t>top_left</t>
+  </si>
+  <si>
+    <t>top_top</t>
+  </si>
+  <si>
+    <t>bottom_width</t>
+  </si>
+  <si>
+    <t>bottom_height</t>
+  </si>
+  <si>
+    <t>bottom_left</t>
+  </si>
+  <si>
+    <t>bottom_top</t>
+  </si>
+  <si>
+    <t>foldername</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>20100510_12</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>20100510_13</t>
+  </si>
+  <si>
+    <t>20100510_14</t>
+  </si>
+  <si>
+    <t>20100510_15</t>
+  </si>
+  <si>
+    <t>20100510_16</t>
+  </si>
+  <si>
+    <t>20100510_17</t>
+  </si>
+  <si>
+    <t>20100510_18</t>
+  </si>
+  <si>
+    <t>20100510_19</t>
   </si>
 </sst>
 </file>
@@ -91,12 +136,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,8 +168,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,236 +452,759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="1">
+        <v>113</v>
+      </c>
+      <c r="C2">
+        <v>364</v>
+      </c>
+      <c r="D2" s="2">
+        <v>161</v>
+      </c>
+      <c r="E2">
+        <v>253</v>
+      </c>
+      <c r="F2" s="1">
+        <v>408</v>
+      </c>
+      <c r="G2">
+        <v>445</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>154</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="1">
+        <v>186</v>
+      </c>
+      <c r="C3">
+        <v>327</v>
+      </c>
+      <c r="D3" s="2">
+        <v>171</v>
+      </c>
+      <c r="E3">
+        <v>284</v>
+      </c>
+      <c r="F3" s="1">
+        <v>431</v>
+      </c>
+      <c r="G3">
+        <v>445</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>131</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="1">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>309</v>
+      </c>
+      <c r="D4" s="2">
+        <v>170</v>
+      </c>
+      <c r="E4">
+        <v>203</v>
+      </c>
+      <c r="F4" s="1">
+        <v>347</v>
+      </c>
+      <c r="G4">
+        <v>446</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" s="1">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>311</v>
+      </c>
+      <c r="D5" s="2">
+        <v>170</v>
+      </c>
+      <c r="E5">
+        <v>203</v>
+      </c>
+      <c r="F5" s="1">
+        <v>369</v>
+      </c>
+      <c r="G5">
+        <v>445</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B6" s="1">
+        <v>84</v>
+      </c>
+      <c r="C6">
+        <v>310</v>
+      </c>
+      <c r="D6" s="2">
+        <v>170</v>
+      </c>
+      <c r="E6">
+        <v>203</v>
+      </c>
+      <c r="F6" s="1">
+        <v>347</v>
+      </c>
+      <c r="G6">
+        <v>445</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>150</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>161</v>
-      </c>
-      <c r="C2">
-        <v>253</v>
-      </c>
-      <c r="D2">
-        <v>364</v>
-      </c>
-      <c r="E2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B7" s="1">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>310</v>
+      </c>
+      <c r="D7" s="2">
+        <v>170</v>
+      </c>
+      <c r="E7">
+        <v>203</v>
+      </c>
+      <c r="F7" s="1">
+        <v>347</v>
+      </c>
+      <c r="G7">
+        <v>445</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>150</v>
+      </c>
+      <c r="J7">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>161</v>
-      </c>
-      <c r="C3">
-        <v>253</v>
-      </c>
-      <c r="D3">
-        <v>364</v>
-      </c>
-      <c r="E3">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>310</v>
+      </c>
+      <c r="D8" s="2">
+        <v>170</v>
+      </c>
+      <c r="E8">
+        <v>203</v>
+      </c>
+      <c r="F8" s="1">
+        <v>347</v>
+      </c>
+      <c r="G8">
+        <v>446</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>150</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>161</v>
-      </c>
-      <c r="C4">
-        <v>253</v>
-      </c>
-      <c r="D4">
-        <v>364</v>
-      </c>
-      <c r="E4">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9" s="1">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>310</v>
+      </c>
+      <c r="D9" s="2">
+        <v>170</v>
+      </c>
+      <c r="E9">
+        <v>203</v>
+      </c>
+      <c r="F9" s="1">
+        <v>347</v>
+      </c>
+      <c r="G9">
+        <v>446</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>150</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
-        <v>161</v>
-      </c>
-      <c r="C5">
-        <v>253</v>
-      </c>
-      <c r="D5">
-        <v>364</v>
-      </c>
-      <c r="E5">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B10" s="1">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>308</v>
+      </c>
+      <c r="D10" s="2">
+        <v>170</v>
+      </c>
+      <c r="E10">
+        <v>203</v>
+      </c>
+      <c r="F10" s="1">
+        <v>345</v>
+      </c>
+      <c r="G10">
+        <v>445</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+      <c r="I10">
+        <v>150</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>161</v>
-      </c>
-      <c r="C6">
-        <v>253</v>
-      </c>
-      <c r="D6">
-        <v>364</v>
-      </c>
-      <c r="E6">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B11" s="1">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>307</v>
+      </c>
+      <c r="D11" s="2">
+        <v>170</v>
+      </c>
+      <c r="E11">
+        <v>203</v>
+      </c>
+      <c r="F11" s="1">
+        <v>345</v>
+      </c>
+      <c r="G11">
+        <v>445</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+      <c r="I11">
+        <v>150</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>161</v>
-      </c>
-      <c r="C7">
-        <v>253</v>
-      </c>
-      <c r="D7">
-        <v>364</v>
-      </c>
-      <c r="E7">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B12" s="1">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>307</v>
+      </c>
+      <c r="D12" s="2">
+        <v>170</v>
+      </c>
+      <c r="E12">
+        <v>203</v>
+      </c>
+      <c r="F12" s="1">
+        <v>345</v>
+      </c>
+      <c r="G12">
+        <v>444</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>150</v>
+      </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>161</v>
-      </c>
-      <c r="C8">
-        <v>253</v>
-      </c>
-      <c r="D8">
-        <v>364</v>
-      </c>
-      <c r="E8">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>161</v>
-      </c>
-      <c r="C9">
-        <v>253</v>
-      </c>
-      <c r="D9">
-        <v>364</v>
-      </c>
-      <c r="E9">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>161</v>
-      </c>
-      <c r="C10">
-        <v>253</v>
-      </c>
-      <c r="D10">
-        <v>364</v>
-      </c>
-      <c r="E10">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>161</v>
-      </c>
-      <c r="C11">
-        <v>253</v>
-      </c>
-      <c r="D11">
-        <v>364</v>
-      </c>
-      <c r="E11">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>161</v>
-      </c>
-      <c r="C12">
-        <v>253</v>
-      </c>
-      <c r="D12">
-        <v>364</v>
-      </c>
-      <c r="E12">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>161</v>
+      <c r="B13" s="1">
+        <v>83</v>
       </c>
       <c r="C13">
-        <v>253</v>
-      </c>
-      <c r="D13">
-        <v>364</v>
+        <v>307</v>
+      </c>
+      <c r="D13" s="2">
+        <v>170</v>
       </c>
       <c r="E13">
-        <v>113</v>
+        <v>203</v>
+      </c>
+      <c r="F13" s="1">
+        <v>348</v>
+      </c>
+      <c r="G13">
+        <v>345</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <v>150</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1">
+        <v>183</v>
+      </c>
+      <c r="C14">
+        <v>315</v>
+      </c>
+      <c r="D14" s="2">
+        <v>114</v>
+      </c>
+      <c r="E14">
+        <v>138</v>
+      </c>
+      <c r="F14" s="1">
+        <v>375</v>
+      </c>
+      <c r="G14">
+        <v>346</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>150</v>
+      </c>
+      <c r="J14">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>208</v>
+      </c>
+      <c r="C15">
+        <v>315</v>
+      </c>
+      <c r="D15" s="2">
+        <v>114</v>
+      </c>
+      <c r="E15">
+        <v>138</v>
+      </c>
+      <c r="F15" s="1">
+        <v>375</v>
+      </c>
+      <c r="G15">
+        <v>346</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>150</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1">
+        <v>190</v>
+      </c>
+      <c r="C16">
+        <v>315</v>
+      </c>
+      <c r="D16" s="2">
+        <v>114</v>
+      </c>
+      <c r="E16">
+        <v>138</v>
+      </c>
+      <c r="F16" s="1">
+        <v>375</v>
+      </c>
+      <c r="G16">
+        <v>346</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>150</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>190</v>
+      </c>
+      <c r="C17">
+        <v>315</v>
+      </c>
+      <c r="D17" s="2">
+        <v>114</v>
+      </c>
+      <c r="E17">
+        <v>138</v>
+      </c>
+      <c r="F17" s="1">
+        <v>375</v>
+      </c>
+      <c r="G17">
+        <v>346</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>150</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1">
+        <v>186</v>
+      </c>
+      <c r="C18">
+        <v>315</v>
+      </c>
+      <c r="D18" s="2">
+        <v>114</v>
+      </c>
+      <c r="E18">
+        <v>138</v>
+      </c>
+      <c r="F18" s="1">
+        <v>375</v>
+      </c>
+      <c r="G18">
+        <v>346</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>150</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1">
+        <v>192</v>
+      </c>
+      <c r="C19">
+        <v>315</v>
+      </c>
+      <c r="D19" s="2">
+        <v>114</v>
+      </c>
+      <c r="E19">
+        <v>138</v>
+      </c>
+      <c r="F19" s="1">
+        <v>375</v>
+      </c>
+      <c r="G19">
+        <v>346</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1">
+        <v>190</v>
+      </c>
+      <c r="C20">
+        <v>315</v>
+      </c>
+      <c r="D20" s="2">
+        <v>114</v>
+      </c>
+      <c r="E20">
+        <v>138</v>
+      </c>
+      <c r="F20" s="1">
+        <v>375</v>
+      </c>
+      <c r="G20">
+        <v>346</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+      <c r="I20">
+        <v>150</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1">
+        <v>190</v>
+      </c>
+      <c r="C21">
+        <v>315</v>
+      </c>
+      <c r="D21" s="2">
+        <v>114</v>
+      </c>
+      <c r="E21">
+        <v>138</v>
+      </c>
+      <c r="F21" s="1">
+        <v>375</v>
+      </c>
+      <c r="G21">
+        <v>346</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+      <c r="I21">
+        <v>150</v>
+      </c>
+      <c r="J21">
+        <v>9</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/image_mappings.xlsx
+++ b/mappings/image_mappings.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\python\pythonocr\mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B28026-3A3B-4670-9138-1FCD15E1857F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87935D6C-15E2-4A93-A39F-513731334EE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Readme" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>find_the_error</t>
   </si>
@@ -121,6 +122,12 @@
   </si>
   <si>
     <t>20100510_19</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Set process column to Y, for the image to get processed.</t>
   </si>
 </sst>
 </file>
@@ -456,7 +463,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -609,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -644,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -679,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -714,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -749,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -784,7 +791,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -819,7 +826,7 @@
         <v>6</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -854,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -889,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -924,7 +931,7 @@
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -959,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -994,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1029,7 +1036,7 @@
         <v>9</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1064,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1099,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1134,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1169,7 +1176,7 @@
         <v>9</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1204,7 +1211,30 @@
         <v>9</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C28B45-E282-4664-B83C-F2E44ABD4A23}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
